--- a/transformacion/staging/resumen_transformacion.xlsx
+++ b/transformacion/staging/resumen_transformacion.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Ejecución</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Total Registros</t>
+  </si>
+  <si>
+    <t>POAI 2024</t>
+  </si>
+  <si>
+    <t>POAI 2025</t>
+  </si>
+  <si>
+    <t>Estrategias</t>
+  </si>
+  <si>
+    <t>Regalías</t>
+  </si>
+  <si>
+    <t>Proyectos</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Beneficiarios</t>
   </si>
 </sst>
 </file>
@@ -374,15 +401,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/transformacion/staging/resumen_transformacion.xlsx
+++ b/transformacion/staging/resumen_transformacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Fuente</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Beneficiarios</t>
+  </si>
+  <si>
+    <t>Metas</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +467,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -489,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -500,32 +503,32 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2072</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -533,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -544,32 +547,32 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>234</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -577,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>8</v>
-      </c>
-      <c r="C16">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -588,10 +591,43 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/transformacion/staging/resumen_transformacion.xlsx
+++ b/transformacion/staging/resumen_transformacion.xlsx
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
